--- a/assets/data/MSME Country Indicators - Yemen, Rep. Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Yemen, Rep. Summary.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Yemen, Rep.</t>
   </si>
@@ -19,6 +19,9 @@
     <t>MSME Participation on the Economy</t>
   </si>
   <si>
+    <t>Source Type: Statistical Institution (Most Widely Used)</t>
+  </si>
+  <si>
     <t>Micro</t>
   </si>
   <si>
@@ -52,6 +55,12 @@
     <t>20.4</t>
   </si>
   <si>
+    <t>Employment (% of total)</t>
+  </si>
+  <si>
+    <t>26.4</t>
+  </si>
+  <si>
     <t>Source: CSO, 2004</t>
   </si>
   <si>
@@ -188,6 +197,12 @@
   </si>
   <si>
     <t>pg. 76</t>
+  </si>
+  <si>
+    <t>CSO</t>
+  </si>
+  <si>
+    <t>Central Statistical Organization (CSO). 2004 Census (E-mailed data from the CSO).</t>
   </si>
 </sst>
 </file>
@@ -195,7 +210,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -206,6 +221,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -238,26 +259,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="1"/>
     <xf numFmtId="0" fontId="2"/>
     <xf numFmtId="0" fontId="3"/>
     <xf numFmtId="0" fontId="4"/>
+    <xf numFmtId="0" fontId="5"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="2"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="3"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="4"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="name" xfId="1"/>
     <cellStyle name="title" xfId="2"/>
-    <cellStyle name="source" xfId="3"/>
-    <cellStyle name="HyperLink" xfId="4"/>
+    <cellStyle name="title_" xfId="3"/>
+    <cellStyle name="source" xfId="4"/>
+    <cellStyle name="HyperLink" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -265,7 +289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -281,47 +305,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="B10" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="D10" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="D11" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -329,203 +353,226 @@
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D12" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+    <row r="13">
+      <c r="A13" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B31" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
+    <row r="35">
+      <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+    <row r="36">
+      <c r="A36" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
+    <row r="37">
+      <c r="A37" s="4" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A32" r:id="rId1"/>
+    <hyperlink ref="A39" r:id="rId1"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/assets/data/MSME Country Indicators - Yemen, Rep. Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Yemen, Rep. Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Yemen, Rep.</t>
   </si>
@@ -62,6 +62,39 @@
   </si>
   <si>
     <t>Source: CSO, 2004</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>10-99</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>100-499</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>&gt;500</t>
   </si>
   <si>
     <t>Sector Distribution Details</t>
@@ -289,7 +322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -362,217 +395,284 @@
         <v>16</v>
       </c>
     </row>
+    <row r="16">
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="2" t="s">
+      <c r="A19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="0" t="s">
+      <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="0" t="s">
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="0" t="s">
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="B35" s="0" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="C35" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="4" t="s">
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="s">
+      <c r="B38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="s">
+      <c r="B39" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="C39" s="0" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>61</v>
+      <c r="A40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>62</v>
+      <c r="A43" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A39" r:id="rId1"/>
+    <hyperlink ref="A45" r:id="rId1"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/assets/data/MSME Country Indicators - Yemen, Rep. Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Yemen, Rep. Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Yemen, Rep.</t>
   </si>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>CSO</t>
-  </si>
-  <si>
-    <t>Central Statistical Organization (CSO). 2004 Census (E-mailed data from the CSO).</t>
   </si>
 </sst>
 </file>
@@ -322,7 +319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -647,33 +644,45 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
+    <row r="52">
+      <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="4" t="s">
-        <v>74</v>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A45" r:id="rId1"/>
-  </hyperlinks>
   <headerFooter/>
 </worksheet>
 </file>
--- a/assets/data/MSME Country Indicators - Yemen, Rep. Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Yemen, Rep. Summary.xlsx
@@ -34,10 +34,10 @@
     <t>Enterprises (absolute #)</t>
   </si>
   <si>
-    <t>385826.5</t>
-  </si>
-  <si>
-    <t>14408.5</t>
+    <t>385826.54</t>
+  </si>
+  <si>
+    <t>14408.46</t>
   </si>
   <si>
     <t>400235</t>
@@ -46,19 +46,19 @@
     <t>Enterprises density (per 1000 people)</t>
   </si>
   <si>
-    <t>19.7</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>20.4</t>
+    <t>19.67</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>20.41</t>
   </si>
   <si>
     <t>Employment (% of total)</t>
   </si>
   <si>
-    <t>26.4</t>
+    <t>26.39</t>
   </si>
   <si>
     <t>Source: CSO, 2004</t>
